--- a/Code/Results/Cases/Case_4_158/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_158/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.86434068459853</v>
+        <v>13.45616125726453</v>
       </c>
       <c r="C2">
-        <v>5.646944262269932</v>
+        <v>5.540912480444399</v>
       </c>
       <c r="D2">
-        <v>10.89292858917005</v>
+        <v>14.79634839485919</v>
       </c>
       <c r="E2">
-        <v>10.967884475214</v>
+        <v>15.85121562336859</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>69.19324363171022</v>
+        <v>68.99953833991569</v>
       </c>
       <c r="H2">
-        <v>19.70127324367501</v>
+        <v>23.93706641619157</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.448265305030291</v>
+        <v>9.266839676897789</v>
       </c>
       <c r="K2">
-        <v>10.13703488816619</v>
+        <v>13.09487274637254</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>12.255647258997</v>
+        <v>18.63421141517745</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.172665807358</v>
+        <v>13.37336625490839</v>
       </c>
       <c r="C3">
-        <v>5.245034179439791</v>
+        <v>5.518470734537807</v>
       </c>
       <c r="D3">
-        <v>10.55123989064081</v>
+        <v>14.77171769822337</v>
       </c>
       <c r="E3">
-        <v>10.71544452953984</v>
+        <v>15.84451855489243</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>66.58699713589048</v>
+        <v>68.29266798032268</v>
       </c>
       <c r="H3">
-        <v>19.2386446151615</v>
+        <v>23.84782489767796</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.455473620198832</v>
+        <v>9.281490311776777</v>
       </c>
       <c r="K3">
-        <v>9.42244981199975</v>
+        <v>13.07119969992558</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>11.8979057603621</v>
+        <v>18.64144191972745</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.73704493859008</v>
+        <v>13.32709030605761</v>
       </c>
       <c r="C4">
-        <v>4.986334659253744</v>
+        <v>5.507552550882399</v>
       </c>
       <c r="D4">
-        <v>10.34368054780039</v>
+        <v>14.75949827461947</v>
       </c>
       <c r="E4">
-        <v>10.56456126391416</v>
+        <v>15.84310253950619</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>64.97229272433273</v>
+        <v>67.86301473424442</v>
       </c>
       <c r="H4">
-        <v>18.95769896705637</v>
+        <v>23.79519013036274</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.461651634438886</v>
+        <v>9.291301483799904</v>
       </c>
       <c r="K4">
-        <v>9.023724291445857</v>
+        <v>13.06092410767734</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>11.68303709172914</v>
+        <v>18.65005450795602</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.55696534309243</v>
+        <v>13.30939920030442</v>
       </c>
       <c r="C5">
-        <v>4.877859018421646</v>
+        <v>5.503827407929085</v>
       </c>
       <c r="D5">
-        <v>10.25974308870433</v>
+        <v>14.75525185073599</v>
       </c>
       <c r="E5">
-        <v>10.50414096370294</v>
+        <v>15.84320435253398</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>64.31122180357512</v>
+        <v>67.68915620627682</v>
       </c>
       <c r="H5">
-        <v>18.84403878265757</v>
+        <v>23.77429204857863</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.464599966908613</v>
+        <v>9.295504999718142</v>
       </c>
       <c r="K5">
-        <v>8.896879235167523</v>
+        <v>13.05781191608631</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>11.59676375357613</v>
+        <v>18.65461381670037</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.52691503386971</v>
+        <v>13.30653261225367</v>
       </c>
       <c r="C6">
-        <v>4.859660756635066</v>
+        <v>5.503252692776278</v>
       </c>
       <c r="D6">
-        <v>10.24584677660267</v>
+        <v>14.75459108524571</v>
       </c>
       <c r="E6">
-        <v>10.49417350549015</v>
+        <v>15.84326228004443</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>64.2012845782442</v>
+        <v>67.66036508305784</v>
       </c>
       <c r="H6">
-        <v>18.82521697443153</v>
+        <v>23.77085543685768</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.465115272949867</v>
+        <v>9.296215403449372</v>
       </c>
       <c r="K6">
-        <v>8.875778545740101</v>
+        <v>13.05736017334661</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>11.58251840627926</v>
+        <v>18.65543427865108</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.73462640674134</v>
+        <v>13.3268469689345</v>
       </c>
       <c r="C7">
-        <v>4.984884152492613</v>
+        <v>5.507499375370243</v>
       </c>
       <c r="D7">
-        <v>10.34254581523812</v>
+        <v>14.75943803422017</v>
       </c>
       <c r="E7">
-        <v>10.56374205775654</v>
+        <v>15.84310116297455</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>64.96338888991878</v>
+        <v>67.86066487292491</v>
       </c>
       <c r="H7">
-        <v>18.95616269278434</v>
+        <v>23.79490605060858</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.461689665246478</v>
+        <v>9.291357341916603</v>
       </c>
       <c r="K7">
-        <v>9.02201630091538</v>
+        <v>13.06087777771322</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>11.68186825313447</v>
+        <v>18.65011174659096</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.62821786229904</v>
+        <v>13.42667963274037</v>
       </c>
       <c r="C8">
-        <v>5.510806647743896</v>
+        <v>5.532583964648063</v>
       </c>
       <c r="D8">
-        <v>10.77469647169584</v>
+        <v>14.78725490742355</v>
       </c>
       <c r="E8">
-        <v>10.8800070646032</v>
+        <v>15.84834755476221</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>68.29792574891715</v>
+        <v>68.75498189594154</v>
       </c>
       <c r="H8">
-        <v>19.54113898711781</v>
+        <v>23.90585255305852</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.450381007131258</v>
+        <v>9.271722106887632</v>
       </c>
       <c r="K8">
-        <v>9.895276375160943</v>
+        <v>13.08582894938575</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>12.13135349673823</v>
+        <v>18.63583867813322</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.54084647882714</v>
+        <v>13.65765671441999</v>
       </c>
       <c r="C9">
-        <v>6.450179944448636</v>
+        <v>5.604202249376259</v>
       </c>
       <c r="D9">
-        <v>11.6367556516218</v>
+        <v>14.86469626931264</v>
       </c>
       <c r="E9">
-        <v>11.53163356623473</v>
+        <v>15.87997617760616</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>74.70199617604955</v>
+        <v>70.53755491831689</v>
       </c>
       <c r="H9">
-        <v>20.71132361598184</v>
+        <v>24.14018908193216</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.442578852516389</v>
+        <v>9.239676418926205</v>
       </c>
       <c r="K9">
-        <v>11.55714944095742</v>
+        <v>13.16832557769748</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.04742595086444</v>
+        <v>18.64093055645164</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.87984367079211</v>
+        <v>13.84736760491092</v>
       </c>
       <c r="C10">
-        <v>7.088295553174675</v>
+        <v>5.670027836403204</v>
       </c>
       <c r="D10">
-        <v>12.27561741396341</v>
+        <v>14.93531657239925</v>
       </c>
       <c r="E10">
-        <v>12.02825956859062</v>
+        <v>15.91613876371208</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>79.30522904480134</v>
+        <v>71.85685285226101</v>
       </c>
       <c r="H10">
-        <v>21.58367055467196</v>
+        <v>24.32206041227521</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.446314497200251</v>
+        <v>9.220053024056588</v>
       </c>
       <c r="K10">
-        <v>12.67722949730374</v>
+        <v>13.24901133874148</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>13.73786297489685</v>
+        <v>18.66477195489796</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.46473399709656</v>
+        <v>13.93767307266384</v>
       </c>
       <c r="C11">
-        <v>7.368279018351378</v>
+        <v>5.702715515693137</v>
       </c>
       <c r="D11">
-        <v>12.56699979082967</v>
+        <v>14.97036289672628</v>
       </c>
       <c r="E11">
-        <v>12.25793373933165</v>
+        <v>15.93537193834701</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>81.37532687839743</v>
+        <v>72.457426774773</v>
       </c>
       <c r="H11">
-        <v>21.98321271990723</v>
+        <v>24.40678424641884</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.450241029509353</v>
+        <v>9.211973547298792</v>
       </c>
       <c r="K11">
-        <v>13.16628233196118</v>
+        <v>13.28996975225819</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.05522596794508</v>
+        <v>18.6799579312883</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.68286806423794</v>
+        <v>13.97241439048144</v>
       </c>
       <c r="C12">
-        <v>7.472911815888918</v>
+        <v>5.715475721905318</v>
       </c>
       <c r="D12">
-        <v>12.67743086085403</v>
+        <v>14.98404797004936</v>
       </c>
       <c r="E12">
-        <v>12.34544557851992</v>
+        <v>15.94305246762041</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>82.15576430644373</v>
+        <v>72.68476559157756</v>
       </c>
       <c r="H12">
-        <v>22.13491334318455</v>
+        <v>24.4391418483442</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.452063877368498</v>
+        <v>9.209035610438203</v>
       </c>
       <c r="K12">
-        <v>13.34865760001028</v>
+        <v>13.3060806340529</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.17585356673508</v>
+        <v>18.68632958650821</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.63603575523184</v>
+        <v>13.96490851517733</v>
       </c>
       <c r="C13">
-        <v>7.45043759517498</v>
+        <v>5.712710797514855</v>
       </c>
       <c r="D13">
-        <v>12.65364362075164</v>
+        <v>14.98108234574457</v>
       </c>
       <c r="E13">
-        <v>12.32657425025967</v>
+        <v>15.94138070435162</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>81.98783625521452</v>
+        <v>72.63581021766714</v>
       </c>
       <c r="H13">
-        <v>22.1022235776881</v>
+        <v>24.43216103950208</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.451656087132485</v>
+        <v>9.209662944238861</v>
       </c>
       <c r="K13">
-        <v>13.30950303465727</v>
+        <v>13.30258433064321</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.14985442967987</v>
+        <v>18.68492976980563</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.48274636562981</v>
+        <v>13.94052053052513</v>
       </c>
       <c r="C14">
-        <v>7.376914547375933</v>
+        <v>5.703757722406832</v>
       </c>
       <c r="D14">
-        <v>12.57608324413289</v>
+        <v>14.97148052042774</v>
       </c>
       <c r="E14">
-        <v>12.26512254957167</v>
+        <v>15.93599587396511</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>81.4396030502194</v>
+        <v>72.47613261931824</v>
       </c>
       <c r="H14">
-        <v>21.99568500829418</v>
+        <v>24.409440891893</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.450384168144465</v>
+        <v>9.211729406177453</v>
       </c>
       <c r="K14">
-        <v>13.18134217491416</v>
+        <v>13.29128322910531</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.06514113152502</v>
+        <v>18.68046970391379</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.38841996541195</v>
+        <v>13.92565216003406</v>
       </c>
       <c r="C15">
-        <v>7.331701257706075</v>
+        <v>5.6983230799659</v>
       </c>
       <c r="D15">
-        <v>12.52858685614314</v>
+        <v>14.96565281951303</v>
       </c>
       <c r="E15">
-        <v>12.22755199352648</v>
+        <v>15.93274916700901</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>81.10334470752291</v>
+        <v>72.3783100438762</v>
       </c>
       <c r="H15">
-        <v>21.93048021200511</v>
+        <v>24.39555954506691</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.449649322953714</v>
+        <v>9.213011000210555</v>
       </c>
       <c r="K15">
-        <v>13.1024768542515</v>
+        <v>13.28443888078239</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.01330994272318</v>
+        <v>18.67781856373392</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.84114318879949</v>
+        <v>13.84154387004422</v>
       </c>
       <c r="C16">
-        <v>7.069798232783028</v>
+        <v>5.667945786046587</v>
       </c>
       <c r="D16">
-        <v>12.2565882275052</v>
+        <v>14.93308446727417</v>
       </c>
       <c r="E16">
-        <v>12.01332507889647</v>
+        <v>15.91493759290405</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>79.16945705793911</v>
+        <v>71.81759987684221</v>
       </c>
       <c r="H16">
-        <v>21.55761474047613</v>
+        <v>24.31656256755605</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.446104014183748</v>
+        <v>9.220598064964765</v>
       </c>
       <c r="K16">
-        <v>12.64486720939795</v>
+        <v>13.24641930435085</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>13.71718619459049</v>
+        <v>18.66386660378126</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.49929108409187</v>
+        <v>13.79095002524152</v>
       </c>
       <c r="C17">
-        <v>6.906552755705348</v>
+        <v>5.650004438025871</v>
       </c>
       <c r="D17">
-        <v>12.08990222166283</v>
+        <v>14.91384866974679</v>
       </c>
       <c r="E17">
-        <v>11.88286184207521</v>
+        <v>15.90472158597739</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>77.97689610310861</v>
+        <v>71.47362556577981</v>
       </c>
       <c r="H17">
-        <v>21.3295711008475</v>
+        <v>24.26860198320768</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.444510234514425</v>
+        <v>9.225469316850328</v>
       </c>
       <c r="K17">
-        <v>12.35897995150698</v>
+        <v>13.2241776695069</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>13.53634191152827</v>
+        <v>18.65641718164512</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.30037766507014</v>
+        <v>13.76222871094265</v>
       </c>
       <c r="C18">
-        <v>6.811683029322362</v>
+        <v>5.639944071875638</v>
       </c>
       <c r="D18">
-        <v>11.99410055415734</v>
+        <v>14.90306007300498</v>
       </c>
       <c r="E18">
-        <v>11.80817585958664</v>
+        <v>15.89910771241932</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>77.28870762906026</v>
+        <v>71.27582871288489</v>
       </c>
       <c r="H18">
-        <v>21.19865940229404</v>
+        <v>24.24120432288143</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.443802147274366</v>
+        <v>9.228350899749206</v>
       </c>
       <c r="K18">
-        <v>12.19260954518954</v>
+        <v>13.21178600365381</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>13.432633998146</v>
+        <v>18.65254122946258</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.23263205497706</v>
+        <v>13.75257018406901</v>
       </c>
       <c r="C19">
-        <v>6.77939167377619</v>
+        <v>5.636582652657184</v>
       </c>
       <c r="D19">
-        <v>11.96167691567474</v>
+        <v>14.89945470757753</v>
       </c>
       <c r="E19">
-        <v>11.78294930764113</v>
+        <v>15.89725204745337</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>77.05531346003204</v>
+        <v>71.20887081189701</v>
       </c>
       <c r="H19">
-        <v>21.15437828416101</v>
+        <v>24.23196058027765</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.443597775452626</v>
+        <v>9.229340262136249</v>
       </c>
       <c r="K19">
-        <v>12.13594328459879</v>
+        <v>13.20765960856846</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>13.39757433567433</v>
+        <v>18.65129918863206</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.53591783037922</v>
+        <v>13.79629683229421</v>
       </c>
       <c r="C20">
-        <v>6.92403082636162</v>
+        <v>5.651887603841681</v>
       </c>
       <c r="D20">
-        <v>12.10763899822413</v>
+        <v>14.91586790148375</v>
       </c>
       <c r="E20">
-        <v>11.89671338216193</v>
+        <v>15.90578198985315</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>78.10408058164624</v>
+        <v>71.51023830248695</v>
       </c>
       <c r="H20">
-        <v>21.35382051492009</v>
+        <v>24.27368809469908</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.444658195358653</v>
+        <v>9.224942509985608</v>
       </c>
       <c r="K20">
-        <v>12.38961259049632</v>
+        <v>13.22650388937998</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>13.55556134448498</v>
+        <v>18.65716790117122</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.52786099089647</v>
+        <v>13.94766934758886</v>
       </c>
       <c r="C21">
-        <v>7.398547032155377</v>
+        <v>5.706377191475283</v>
       </c>
       <c r="D21">
-        <v>12.59886220151918</v>
+        <v>14.97428963124918</v>
       </c>
       <c r="E21">
-        <v>12.28315772103726</v>
+        <v>15.93756676933811</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>81.60072601301522</v>
+        <v>72.52303727544414</v>
       </c>
       <c r="H21">
-        <v>22.02696684101732</v>
+        <v>24.4161069940361</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.450748511505324</v>
+        <v>9.211119138458844</v>
       </c>
       <c r="K21">
-        <v>13.21906155202232</v>
+        <v>13.29458642264977</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.09001137419838</v>
+        <v>18.68176290537646</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.15669299945834</v>
+        <v>14.04975911887013</v>
       </c>
       <c r="C22">
-        <v>7.700612588773399</v>
+        <v>5.744209976477689</v>
       </c>
       <c r="D22">
-        <v>12.92043882692984</v>
+        <v>15.01488024941514</v>
       </c>
       <c r="E22">
-        <v>12.53887241237628</v>
+        <v>15.96065444897946</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>83.86587332457147</v>
+        <v>73.18439512034334</v>
       </c>
       <c r="H22">
-        <v>22.46927402215276</v>
+        <v>24.51078043192071</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.456695470026323</v>
+        <v>9.202793340605494</v>
       </c>
       <c r="K22">
-        <v>13.74479401442568</v>
+        <v>13.34257853984855</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.44192709339583</v>
+        <v>18.70145534030315</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.8228061268504</v>
+        <v>13.99499344787156</v>
       </c>
       <c r="C23">
-        <v>7.540099575011388</v>
+        <v>5.723819061602923</v>
       </c>
       <c r="D23">
-        <v>12.74876001266596</v>
+        <v>14.9929980699566</v>
       </c>
       <c r="E23">
-        <v>12.40210164113178</v>
+        <v>15.94812135410262</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>82.65873761716635</v>
+        <v>72.83151543501518</v>
       </c>
       <c r="H23">
-        <v>22.23298037165438</v>
+        <v>24.46010948641397</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.453335945333085</v>
+        <v>9.207172225824484</v>
       </c>
       <c r="K23">
-        <v>13.4656527632739</v>
+        <v>13.31664820975176</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.25386542531837</v>
+        <v>18.69061521203995</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.5193662954203</v>
+        <v>13.79387839915691</v>
       </c>
       <c r="C24">
-        <v>6.916132167295963</v>
+        <v>5.651035431364234</v>
       </c>
       <c r="D24">
-        <v>12.09962011163654</v>
+        <v>14.91495416435781</v>
       </c>
       <c r="E24">
-        <v>11.89045010682152</v>
+        <v>15.9053017729297</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>78.04658847848515</v>
+        <v>71.49368580214403</v>
       </c>
       <c r="H24">
-        <v>21.34285675247269</v>
+        <v>24.27138811603544</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.444590654939409</v>
+        <v>9.225180426935049</v>
       </c>
       <c r="K24">
-        <v>12.37576984453572</v>
+        <v>13.22545097309911</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.54687142119677</v>
+        <v>18.65682723345277</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.02546957518709</v>
+        <v>13.5915449407375</v>
       </c>
       <c r="C25">
-        <v>6.205504797403036</v>
+        <v>5.582469367332507</v>
       </c>
       <c r="D25">
-        <v>11.40237773363147</v>
+        <v>14.84131722236009</v>
       </c>
       <c r="E25">
-        <v>11.35213893473792</v>
+        <v>15.86914257271667</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>72.98638453363583</v>
+        <v>70.05305001034043</v>
       </c>
       <c r="H25">
-        <v>20.39247803752218</v>
+        <v>24.07505086768534</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.443081088659322</v>
+        <v>9.247655902156668</v>
       </c>
       <c r="K25">
-        <v>11.1257339808761</v>
+        <v>13.14244986666716</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>12.79632332472942</v>
+        <v>18.63601634044282</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_158/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_158/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.45616125726453</v>
+        <v>11.86434068459855</v>
       </c>
       <c r="C2">
-        <v>5.540912480444399</v>
+        <v>5.646944262269996</v>
       </c>
       <c r="D2">
-        <v>14.79634839485919</v>
+        <v>10.89292858917008</v>
       </c>
       <c r="E2">
-        <v>15.85121562336859</v>
+        <v>10.96788447521398</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>68.99953833991569</v>
+        <v>69.19324363171025</v>
       </c>
       <c r="H2">
-        <v>23.93706641619157</v>
+        <v>19.70127324367506</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.266839676897789</v>
+        <v>5.44826530503033</v>
       </c>
       <c r="K2">
-        <v>13.09487274637254</v>
+        <v>10.13703488816619</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.63421141517745</v>
+        <v>12.25564725899701</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.37336625490839</v>
+        <v>11.172665807358</v>
       </c>
       <c r="C3">
-        <v>5.518470734537807</v>
+        <v>5.245034179439729</v>
       </c>
       <c r="D3">
-        <v>14.77171769822337</v>
+        <v>10.55123989064072</v>
       </c>
       <c r="E3">
-        <v>15.84451855489243</v>
+        <v>10.71544452953973</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>68.29266798032268</v>
+        <v>66.58699713589078</v>
       </c>
       <c r="H3">
-        <v>23.84782489767796</v>
+        <v>19.23864461516144</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.281490311776777</v>
+        <v>5.455473620198812</v>
       </c>
       <c r="K3">
-        <v>13.07119969992558</v>
+        <v>9.422449811999769</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>18.64144191972745</v>
+        <v>11.89790576036203</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.32709030605761</v>
+        <v>10.7370449385901</v>
       </c>
       <c r="C4">
-        <v>5.507552550882399</v>
+        <v>4.986334659253747</v>
       </c>
       <c r="D4">
-        <v>14.75949827461947</v>
+        <v>10.34368054780048</v>
       </c>
       <c r="E4">
-        <v>15.84310253950619</v>
+        <v>10.56456126391419</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>67.86301473424442</v>
+        <v>64.97229272433292</v>
       </c>
       <c r="H4">
-        <v>23.79519013036274</v>
+        <v>18.95769896705634</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.291301483799904</v>
+        <v>5.461651634438782</v>
       </c>
       <c r="K4">
-        <v>13.06092410767734</v>
+        <v>9.023724291445888</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.65005450795602</v>
+        <v>11.6830370917292</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.30939920030442</v>
+        <v>10.55696534309244</v>
       </c>
       <c r="C5">
-        <v>5.503827407929085</v>
+        <v>4.877859018421661</v>
       </c>
       <c r="D5">
-        <v>14.75525185073599</v>
+        <v>10.25974308870431</v>
       </c>
       <c r="E5">
-        <v>15.84320435253398</v>
+        <v>10.5041409637029</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>67.68915620627682</v>
+        <v>64.31122180357524</v>
       </c>
       <c r="H5">
-        <v>23.77429204857863</v>
+        <v>18.84403878265755</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.295504999718142</v>
+        <v>5.464599966908551</v>
       </c>
       <c r="K5">
-        <v>13.05781191608631</v>
+        <v>8.896879235167564</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.65461381670037</v>
+        <v>11.59676375357616</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.30653261225367</v>
+        <v>10.52691503386967</v>
       </c>
       <c r="C6">
-        <v>5.503252692776278</v>
+        <v>4.859660756634991</v>
       </c>
       <c r="D6">
-        <v>14.75459108524571</v>
+        <v>10.24584677660271</v>
       </c>
       <c r="E6">
-        <v>15.84326228004443</v>
+        <v>10.49417350549011</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>67.66036508305784</v>
+        <v>64.20128457824387</v>
       </c>
       <c r="H6">
-        <v>23.77085543685768</v>
+        <v>18.82521697443139</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.296215403449372</v>
+        <v>5.46511527294983</v>
       </c>
       <c r="K6">
-        <v>13.05736017334661</v>
+        <v>8.875778545740049</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.65543427865108</v>
+        <v>11.58251840627918</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.3268469689345</v>
+        <v>10.73462640674137</v>
       </c>
       <c r="C7">
-        <v>5.507499375370243</v>
+        <v>4.984884152492627</v>
       </c>
       <c r="D7">
-        <v>14.75943803422017</v>
+        <v>10.34254581523819</v>
       </c>
       <c r="E7">
-        <v>15.84310116297455</v>
+        <v>10.56374205775662</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>67.86066487292491</v>
+        <v>64.96338888991873</v>
       </c>
       <c r="H7">
-        <v>23.79490605060858</v>
+        <v>18.95616269278436</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.291357341916603</v>
+        <v>5.461689665246469</v>
       </c>
       <c r="K7">
-        <v>13.06087777771322</v>
+        <v>9.02201630091543</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.65011174659096</v>
+        <v>11.68186825313452</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.42667963274037</v>
+        <v>11.62821786229907</v>
       </c>
       <c r="C8">
-        <v>5.532583964648063</v>
+        <v>5.510806647744089</v>
       </c>
       <c r="D8">
-        <v>14.78725490742355</v>
+        <v>10.77469647169585</v>
       </c>
       <c r="E8">
-        <v>15.84834755476221</v>
+        <v>10.88000706460331</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>68.75498189594154</v>
+        <v>68.29792574891735</v>
       </c>
       <c r="H8">
-        <v>23.90585255305852</v>
+        <v>19.54113898711786</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.271722106887632</v>
+        <v>5.450381007131398</v>
       </c>
       <c r="K8">
-        <v>13.08582894938575</v>
+        <v>9.895276375160956</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.63583867813322</v>
+        <v>12.13135349673828</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.65765671441999</v>
+        <v>13.54084647882715</v>
       </c>
       <c r="C9">
-        <v>5.604202249376259</v>
+        <v>6.450179944448423</v>
       </c>
       <c r="D9">
-        <v>14.86469626931264</v>
+        <v>11.63675565162169</v>
       </c>
       <c r="E9">
-        <v>15.87997617760616</v>
+        <v>11.53163356623466</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>70.53755491831689</v>
+        <v>74.70199617604982</v>
       </c>
       <c r="H9">
-        <v>24.14018908193216</v>
+        <v>20.71132361598195</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.239676418926205</v>
+        <v>5.442578852516467</v>
       </c>
       <c r="K9">
-        <v>13.16832557769748</v>
+        <v>11.55714944095737</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>18.64093055645164</v>
+        <v>13.04742595086446</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.84736760491092</v>
+        <v>14.87984367079209</v>
       </c>
       <c r="C10">
-        <v>5.670027836403204</v>
+        <v>7.088295553174564</v>
       </c>
       <c r="D10">
-        <v>14.93531657239925</v>
+        <v>12.27561741396345</v>
       </c>
       <c r="E10">
-        <v>15.91613876371208</v>
+        <v>12.02825956859063</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>71.85685285226101</v>
+        <v>79.30522904480139</v>
       </c>
       <c r="H10">
-        <v>24.32206041227521</v>
+        <v>21.58367055467197</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.220053024056588</v>
+        <v>5.446314497200292</v>
       </c>
       <c r="K10">
-        <v>13.24901133874148</v>
+        <v>12.67722949730372</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.66477195489796</v>
+        <v>13.73786297489684</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.93767307266384</v>
+        <v>15.46473399709654</v>
       </c>
       <c r="C11">
-        <v>5.702715515693137</v>
+        <v>7.368279018351462</v>
       </c>
       <c r="D11">
-        <v>14.97036289672628</v>
+        <v>12.56699979082964</v>
       </c>
       <c r="E11">
-        <v>15.93537193834701</v>
+        <v>12.25793373933164</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>72.457426774773</v>
+        <v>81.37532687839717</v>
       </c>
       <c r="H11">
-        <v>24.40678424641884</v>
+        <v>21.98321271990721</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.211973547298792</v>
+        <v>5.450241029509342</v>
       </c>
       <c r="K11">
-        <v>13.28996975225819</v>
+        <v>13.16628233196121</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.6799579312883</v>
+        <v>14.05522596794508</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.97241439048144</v>
+        <v>15.68286806423801</v>
       </c>
       <c r="C12">
-        <v>5.715475721905318</v>
+        <v>7.472911815888833</v>
       </c>
       <c r="D12">
-        <v>14.98404797004936</v>
+        <v>12.67743086085403</v>
       </c>
       <c r="E12">
-        <v>15.94305246762041</v>
+        <v>12.34544557851987</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>72.68476559157756</v>
+        <v>82.15576430644366</v>
       </c>
       <c r="H12">
-        <v>24.4391418483442</v>
+        <v>22.13491334318446</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.209035610438203</v>
+        <v>5.452063877368458</v>
       </c>
       <c r="K12">
-        <v>13.3060806340529</v>
+        <v>13.34865760001034</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.68632958650821</v>
+        <v>14.17585356673505</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.96490851517733</v>
+        <v>15.63603575523179</v>
       </c>
       <c r="C13">
-        <v>5.712710797514855</v>
+        <v>7.45043759517484</v>
       </c>
       <c r="D13">
-        <v>14.98108234574457</v>
+        <v>12.65364362075158</v>
       </c>
       <c r="E13">
-        <v>15.94138070435162</v>
+        <v>12.32657425025965</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>72.63581021766714</v>
+        <v>81.98783625521446</v>
       </c>
       <c r="H13">
-        <v>24.43216103950208</v>
+        <v>22.10222357768812</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.209662944238861</v>
+        <v>5.451656087132497</v>
       </c>
       <c r="K13">
-        <v>13.30258433064321</v>
+        <v>13.3095030346572</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.68492976980563</v>
+        <v>14.14985442967988</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.94052053052513</v>
+        <v>15.48274636562995</v>
       </c>
       <c r="C14">
-        <v>5.703757722406832</v>
+        <v>7.376914547375965</v>
       </c>
       <c r="D14">
-        <v>14.97148052042774</v>
+        <v>12.57608324413291</v>
       </c>
       <c r="E14">
-        <v>15.93599587396511</v>
+        <v>12.26512254957174</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>72.47613261931824</v>
+        <v>81.43960305021972</v>
       </c>
       <c r="H14">
-        <v>24.409440891893</v>
+        <v>21.99568500829427</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.211729406177453</v>
+        <v>5.450384168144558</v>
       </c>
       <c r="K14">
-        <v>13.29128322910531</v>
+        <v>13.18134217491425</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.68046970391379</v>
+        <v>14.065141131525</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.92565216003406</v>
+        <v>15.38841996541196</v>
       </c>
       <c r="C15">
-        <v>5.6983230799659</v>
+        <v>7.331701257705935</v>
       </c>
       <c r="D15">
-        <v>14.96565281951303</v>
+        <v>12.52858685614321</v>
       </c>
       <c r="E15">
-        <v>15.93274916700901</v>
+        <v>12.22755199352653</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>72.3783100438762</v>
+        <v>81.10334470752294</v>
       </c>
       <c r="H15">
-        <v>24.39555954506691</v>
+        <v>21.93048021200518</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.213011000210555</v>
+        <v>5.449649322953726</v>
       </c>
       <c r="K15">
-        <v>13.28443888078239</v>
+        <v>13.1024768542515</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.67781856373392</v>
+        <v>14.0133099427232</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.84154387004422</v>
+        <v>14.84114318879949</v>
       </c>
       <c r="C16">
-        <v>5.667945786046587</v>
+        <v>7.069798232783288</v>
       </c>
       <c r="D16">
-        <v>14.93308446727417</v>
+        <v>12.25658822750519</v>
       </c>
       <c r="E16">
-        <v>15.91493759290405</v>
+        <v>12.01332507889642</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>71.81759987684221</v>
+        <v>79.1694570579393</v>
       </c>
       <c r="H16">
-        <v>24.31656256755605</v>
+        <v>21.55761474047615</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.220598064964765</v>
+        <v>5.446104014183644</v>
       </c>
       <c r="K16">
-        <v>13.24641930435085</v>
+        <v>12.644867209398</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.66386660378126</v>
+        <v>13.71718619459046</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.79095002524152</v>
+        <v>14.49929108409186</v>
       </c>
       <c r="C17">
-        <v>5.650004438025871</v>
+        <v>6.906552755705318</v>
       </c>
       <c r="D17">
-        <v>14.91384866974679</v>
+        <v>12.08990222166282</v>
       </c>
       <c r="E17">
-        <v>15.90472158597739</v>
+        <v>11.88286184207522</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>71.47362556577981</v>
+        <v>77.97689610310867</v>
       </c>
       <c r="H17">
-        <v>24.26860198320768</v>
+        <v>21.3295711008475</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.225469316850328</v>
+        <v>5.444510234514417</v>
       </c>
       <c r="K17">
-        <v>13.2241776695069</v>
+        <v>12.35897995150694</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.65641718164512</v>
+        <v>13.53634191152829</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.76222871094265</v>
+        <v>14.30037766507004</v>
       </c>
       <c r="C18">
-        <v>5.639944071875638</v>
+        <v>6.811683029322427</v>
       </c>
       <c r="D18">
-        <v>14.90306007300498</v>
+        <v>11.99410055415736</v>
       </c>
       <c r="E18">
-        <v>15.89910771241932</v>
+        <v>11.80817585958661</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>71.27582871288489</v>
+        <v>77.28870762905986</v>
       </c>
       <c r="H18">
-        <v>24.24120432288143</v>
+        <v>21.19865940229407</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.228350899749206</v>
+        <v>5.443802147274361</v>
       </c>
       <c r="K18">
-        <v>13.21178600365381</v>
+        <v>12.19260954518944</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.65254122946258</v>
+        <v>13.43263399814604</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.75257018406901</v>
+        <v>14.23263205497711</v>
       </c>
       <c r="C19">
-        <v>5.636582652657184</v>
+        <v>6.779391673776323</v>
       </c>
       <c r="D19">
-        <v>14.89945470757753</v>
+        <v>11.9616769156748</v>
       </c>
       <c r="E19">
-        <v>15.89725204745337</v>
+        <v>11.78294930764125</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>71.20887081189701</v>
+        <v>77.05531346003201</v>
       </c>
       <c r="H19">
-        <v>24.23196058027765</v>
+        <v>21.15437828416097</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.229340262136249</v>
+        <v>5.443597775452658</v>
       </c>
       <c r="K19">
-        <v>13.20765960856846</v>
+        <v>12.13594328459891</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.65129918863206</v>
+        <v>13.39757433567433</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.79629683229421</v>
+        <v>14.53591783037917</v>
       </c>
       <c r="C20">
-        <v>5.651887603841681</v>
+        <v>6.924030826361392</v>
       </c>
       <c r="D20">
-        <v>14.91586790148375</v>
+        <v>12.1076389982241</v>
       </c>
       <c r="E20">
-        <v>15.90578198985315</v>
+        <v>11.89671338216187</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>71.51023830248695</v>
+        <v>78.10408058164639</v>
       </c>
       <c r="H20">
-        <v>24.27368809469908</v>
+        <v>21.3538205149202</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.224942509985608</v>
+        <v>5.444658195358669</v>
       </c>
       <c r="K20">
-        <v>13.22650388937998</v>
+        <v>12.38961259049623</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.65716790117122</v>
+        <v>13.55556134448498</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.94766934758886</v>
+        <v>15.52786099089649</v>
       </c>
       <c r="C21">
-        <v>5.706377191475283</v>
+        <v>7.398547032155313</v>
       </c>
       <c r="D21">
-        <v>14.97428963124918</v>
+        <v>12.59886220151919</v>
       </c>
       <c r="E21">
-        <v>15.93756676933811</v>
+        <v>12.2831577210372</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>72.52303727544414</v>
+        <v>81.60072601301542</v>
       </c>
       <c r="H21">
-        <v>24.4161069940361</v>
+        <v>22.02696684101736</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.211119138458844</v>
+        <v>5.45074851150526</v>
       </c>
       <c r="K21">
-        <v>13.29458642264977</v>
+        <v>13.21906155202234</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.68176290537646</v>
+        <v>14.09001137419834</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.04975911887013</v>
+        <v>16.15669299945836</v>
       </c>
       <c r="C22">
-        <v>5.744209976477689</v>
+        <v>7.700612588773267</v>
       </c>
       <c r="D22">
-        <v>15.01488024941514</v>
+        <v>12.92043882692979</v>
       </c>
       <c r="E22">
-        <v>15.96065444897946</v>
+        <v>12.53887241237626</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>73.18439512034334</v>
+        <v>83.86587332457125</v>
       </c>
       <c r="H22">
-        <v>24.51078043192071</v>
+        <v>22.46927402215272</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.202793340605494</v>
+        <v>5.456695470026368</v>
       </c>
       <c r="K22">
-        <v>13.34257853984855</v>
+        <v>13.7447940144257</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.70145534030315</v>
+        <v>14.44192709339582</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.99499344787156</v>
+        <v>15.82280612685035</v>
       </c>
       <c r="C23">
-        <v>5.723819061602923</v>
+        <v>7.540099575011122</v>
       </c>
       <c r="D23">
-        <v>14.9929980699566</v>
+        <v>12.74876001266596</v>
       </c>
       <c r="E23">
-        <v>15.94812135410262</v>
+        <v>12.40210164113179</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>72.83151543501518</v>
+        <v>82.65873761716641</v>
       </c>
       <c r="H23">
-        <v>24.46010948641397</v>
+        <v>22.2329803716544</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.207172225824484</v>
+        <v>5.45333594533314</v>
       </c>
       <c r="K23">
-        <v>13.31664820975176</v>
+        <v>13.46565276327384</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.69061521203995</v>
+        <v>14.2538654253184</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.79387839915691</v>
+        <v>14.51936629542034</v>
       </c>
       <c r="C24">
-        <v>5.651035431364234</v>
+        <v>6.916132167296031</v>
       </c>
       <c r="D24">
-        <v>14.91495416435781</v>
+        <v>12.09962011163653</v>
       </c>
       <c r="E24">
-        <v>15.9053017729297</v>
+        <v>11.89045010682153</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>71.49368580214403</v>
+        <v>78.0465884784853</v>
       </c>
       <c r="H24">
-        <v>24.27138811603544</v>
+        <v>21.34285675247265</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.225180426935049</v>
+        <v>5.444590654939447</v>
       </c>
       <c r="K24">
-        <v>13.22545097309911</v>
+        <v>12.37576984453578</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.65682723345277</v>
+        <v>13.54687142119674</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.5915449407375</v>
+        <v>13.0254695751871</v>
       </c>
       <c r="C25">
-        <v>5.582469367332507</v>
+        <v>6.205504797403365</v>
       </c>
       <c r="D25">
-        <v>14.84131722236009</v>
+        <v>11.40237773363157</v>
       </c>
       <c r="E25">
-        <v>15.86914257271667</v>
+        <v>11.35213893473798</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>70.05305001034043</v>
+        <v>72.98638453363543</v>
       </c>
       <c r="H25">
-        <v>24.07505086768534</v>
+        <v>20.39247803752212</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.247655902156668</v>
+        <v>5.443081088659238</v>
       </c>
       <c r="K25">
-        <v>13.14244986666716</v>
+        <v>11.12573398087617</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>18.63601634044282</v>
+        <v>12.7963233247294</v>
       </c>
       <c r="N25">
         <v>0</v>
